--- a/data/trans_orig/P14B23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Edad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4957</v>
+        <v>4089</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001801036689116763</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01091502894776384</v>
+        <v>0.00900339591822469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5991</v>
+        <v>6030</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004611538177155379</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01392451658715468</v>
+        <v>0.01401546643100797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>2802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7778</v>
+        <v>7962</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00316828496841452</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009212251342443944</v>
+        <v>0.0009266979007874357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008794517162114832</v>
+        <v>0.009002527881171318</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>453328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449189</v>
+        <v>450057</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -823,7 +823,7 @@
         <v>0.9981989633108832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9890849710522374</v>
+        <v>0.9909966040817753</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>428246</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424239</v>
+        <v>424200</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -844,7 +844,7 @@
         <v>0.9953884618228446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9860754834128455</v>
+        <v>0.985984533568992</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,19 +856,19 @@
         <v>881574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>876598</v>
+        <v>876414</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>883561</v>
+        <v>883556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9968317150315855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9912054828378851</v>
+        <v>0.9909974721188287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9990787748657556</v>
+        <v>0.9990733020992125</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>4814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1892</v>
+        <v>1877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10539</v>
+        <v>12166</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007006596555881337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00275352274981398</v>
+        <v>0.002732419737650557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01533904893735006</v>
+        <v>0.01770625665744902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -981,19 +981,19 @@
         <v>17109</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10435</v>
+        <v>9654</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28723</v>
+        <v>27332</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02803609243595356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01709939423596866</v>
+        <v>0.01582018228731422</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04706695193126701</v>
+        <v>0.04478762484467861</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1002,19 +1002,19 @@
         <v>21923</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13593</v>
+        <v>14346</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32387</v>
+        <v>33128</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01689863671657112</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0104777226207358</v>
+        <v>0.01105828748399006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02496394715820462</v>
+        <v>0.0255349599720831</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>682273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>676548</v>
+        <v>674921</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>685195</v>
+        <v>685210</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9929934034441187</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9846609510626498</v>
+        <v>0.9822937433425496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.997246477250186</v>
+        <v>0.9972675802623494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>555</v>
@@ -1052,19 +1052,19 @@
         <v>593146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>581532</v>
+        <v>582923</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>599820</v>
+        <v>600601</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9719639075640465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.952933048068733</v>
+        <v>0.9552123751553216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9829006057640314</v>
+        <v>0.9841798177126858</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1217</v>
@@ -1073,19 +1073,19 @@
         <v>1275419</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1264955</v>
+        <v>1264214</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1283749</v>
+        <v>1282996</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9831013632834289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9750360528417953</v>
+        <v>0.9744650400279169</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9895222773792642</v>
+        <v>0.9889417125160099</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>24542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15483</v>
+        <v>14692</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37249</v>
+        <v>37503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03599283256366133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02270707334034356</v>
+        <v>0.02154722831204622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05462891679230689</v>
+        <v>0.05500069287043308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1198,19 +1198,19 @@
         <v>47302</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34728</v>
+        <v>34801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61797</v>
+        <v>61459</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06683777677043136</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04907141049606757</v>
+        <v>0.04917483067505692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08731970142991595</v>
+        <v>0.08684262794867241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1219,19 +1219,19 @@
         <v>71844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57585</v>
+        <v>56232</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92572</v>
+        <v>91597</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05170215496368383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04144101082659814</v>
+        <v>0.04046702972459273</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06661906972121233</v>
+        <v>0.06591775622626656</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>657321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>644614</v>
+        <v>644360</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666380</v>
+        <v>667171</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9640071674363386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9453710832076933</v>
+        <v>0.944999307129567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9772929266596565</v>
+        <v>0.9784527716879537</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -1269,19 +1269,19 @@
         <v>660406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>645911</v>
+        <v>646249</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>672980</v>
+        <v>672907</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9331622232295687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.912680298570084</v>
+        <v>0.9131573720513276</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9509285895039324</v>
+        <v>0.9508251693249432</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1250</v>
@@ -1290,19 +1290,19 @@
         <v>1317727</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1296999</v>
+        <v>1297974</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1331986</v>
+        <v>1333339</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9482978450363162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9333809302787871</v>
+        <v>0.9340822437737335</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9585589891734018</v>
+        <v>0.9595329702754073</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>15570</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9009</v>
+        <v>9071</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25123</v>
+        <v>27567</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02533205481141183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01465766852488137</v>
+        <v>0.01475930080979125</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04087600925838978</v>
+        <v>0.04485299376577702</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1415,19 +1415,19 @@
         <v>47225</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35022</v>
+        <v>35507</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62029</v>
+        <v>64457</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07715257553540444</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05721671200535204</v>
+        <v>0.05800905069782823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1013378524037638</v>
+        <v>0.1053046062830672</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -1436,19 +1436,19 @@
         <v>62795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48332</v>
+        <v>47761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80548</v>
+        <v>80466</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05118913836582088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03939949180726659</v>
+        <v>0.0389339813952609</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06566143219233944</v>
+        <v>0.06559487809012637</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>599047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>589494</v>
+        <v>587050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>605608</v>
+        <v>605546</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9746679451885881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9591239907416104</v>
+        <v>0.9551470062342224</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985342331475119</v>
+        <v>0.9852406991902087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>493</v>
@@ -1486,19 +1486,19 @@
         <v>564874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>550070</v>
+        <v>547642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>577077</v>
+        <v>576592</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9228474244645956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8986621475962362</v>
+        <v>0.8946953937169327</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9427832879946479</v>
+        <v>0.9419909493021718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1027</v>
@@ -1507,19 +1507,19 @@
         <v>1163921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1146168</v>
+        <v>1146250</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1178384</v>
+        <v>1178955</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9488108616341792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9343385678076606</v>
+        <v>0.9344051219098737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9606005081927332</v>
+        <v>0.9610660186047389</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>18455</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11151</v>
+        <v>11123</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28036</v>
+        <v>28101</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04297630208681932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02596608016652585</v>
+        <v>0.02590211456694243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06528773967145422</v>
+        <v>0.06543859667186476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1632,19 +1632,19 @@
         <v>59623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46492</v>
+        <v>46733</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75675</v>
+        <v>75261</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1334321559314946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1040447681534653</v>
+        <v>0.1045842207577548</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1693538971142814</v>
+        <v>0.1684273129336673</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -1653,19 +1653,19 @@
         <v>78079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62268</v>
+        <v>62175</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94998</v>
+        <v>96945</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08910307312838915</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07105983897826254</v>
+        <v>0.07095443398148299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1084115666264991</v>
+        <v>0.1106328563937419</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>410974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401393</v>
+        <v>401328</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>418278</v>
+        <v>418306</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9570236979131806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9347122603285463</v>
+        <v>0.9345614033281354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9740339198334742</v>
+        <v>0.9740978854330576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -1703,19 +1703,19 @@
         <v>387221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>371169</v>
+        <v>371583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>400352</v>
+        <v>400111</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8665678440685054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8306461028857186</v>
+        <v>0.8315726870663327</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8959552318465347</v>
+        <v>0.8954157792422451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>723</v>
@@ -1724,19 +1724,19 @@
         <v>798194</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>781275</v>
+        <v>779328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>814005</v>
+        <v>814098</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9108969268716108</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.891588433373501</v>
+        <v>0.8893671436062581</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9289401610217375</v>
+        <v>0.9290455660185171</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>11345</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5989</v>
+        <v>5247</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20343</v>
+        <v>20846</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03675191998767203</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01940187327872113</v>
+        <v>0.01699714120800623</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06590263936598074</v>
+        <v>0.06753213323592618</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1849,19 +1849,19 @@
         <v>52799</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40548</v>
+        <v>39447</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67072</v>
+        <v>66215</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1491505422417472</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1145439431671618</v>
+        <v>0.1114340536937751</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1894707477377909</v>
+        <v>0.1870492506896398</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -1870,19 +1870,19 @@
         <v>64144</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50141</v>
+        <v>49647</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83364</v>
+        <v>81016</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09679362872431703</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07566289917822033</v>
+        <v>0.07491764341446758</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1257968205337099</v>
+        <v>0.122254803313277</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>297343</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>288345</v>
+        <v>287842</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>302699</v>
+        <v>303441</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.963248080012328</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9340973606340189</v>
+        <v>0.9324678667640737</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9805981267212789</v>
+        <v>0.9830028587919937</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>292</v>
@@ -1920,19 +1920,19 @@
         <v>301197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>286924</v>
+        <v>287781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>313448</v>
+        <v>314549</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8508494577582527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8105292522622094</v>
+        <v>0.8129507493103605</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8854560568328383</v>
+        <v>0.888565946306225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>563</v>
@@ -1941,19 +1941,19 @@
         <v>598540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>579320</v>
+        <v>581668</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>612543</v>
+        <v>613037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9032063712756829</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.87420317946629</v>
+        <v>0.8777451966867229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9243371008217796</v>
+        <v>0.9250823565855324</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>9614</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4263</v>
+        <v>4308</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19064</v>
+        <v>18191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03864112867906161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01713509348709765</v>
+        <v>0.01731483512552886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07662389578915073</v>
+        <v>0.07311348362384323</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -2066,19 +2066,19 @@
         <v>58952</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45300</v>
+        <v>45803</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74736</v>
+        <v>73176</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1527929317255787</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1174100821076749</v>
+        <v>0.1187141581534508</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.193702031245341</v>
+        <v>0.189658305137431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -2087,19 +2087,19 @@
         <v>68566</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52927</v>
+        <v>53011</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86359</v>
+        <v>86549</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1080409282355571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08339856001511664</v>
+        <v>0.08353000749703542</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1360779320620178</v>
+        <v>0.136376294327837</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>239186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>229736</v>
+        <v>230609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244537</v>
+        <v>244492</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9613588713209383</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9233761042108494</v>
+        <v>0.9268865163761567</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9828649065129024</v>
+        <v>0.9826851648744711</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -2137,19 +2137,19 @@
         <v>326878</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>311094</v>
+        <v>312654</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>340530</v>
+        <v>340027</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8472070682744214</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8062979687546588</v>
+        <v>0.8103416948625689</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8825899178923251</v>
+        <v>0.8812858418465491</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>507</v>
@@ -2158,19 +2158,19 @@
         <v>566065</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>548272</v>
+        <v>548082</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>581704</v>
+        <v>581620</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8919590717644429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8639220679379823</v>
+        <v>0.8636237056721627</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9166014399848839</v>
+        <v>0.9164699925029646</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>85158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66619</v>
+        <v>66696</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104087</v>
+        <v>106661</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02486628227213002</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01945285199492841</v>
+        <v>0.01947544663696105</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03039364984553857</v>
+        <v>0.0311453661706941</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>268</v>
@@ -2283,19 +2283,19 @@
         <v>284994</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>254658</v>
+        <v>249745</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>318538</v>
+        <v>318626</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08034875810665652</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07179618805041722</v>
+        <v>0.07041097629132298</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0898058673947862</v>
+        <v>0.08983063821945649</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>345</v>
@@ -2304,19 +2304,19 @@
         <v>370152</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>331951</v>
+        <v>332493</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>409461</v>
+        <v>409132</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05309430533066321</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04761473759596537</v>
+        <v>0.04769256339643078</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05873279286566738</v>
+        <v>0.0586856323841033</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>3339472</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3320543</v>
+        <v>3317969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3358011</v>
+        <v>3357934</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9751337177278699</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9696063501544615</v>
+        <v>0.9688546338293061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9805471480050719</v>
+        <v>0.9805245533630391</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3021</v>
@@ -2354,19 +2354,19 @@
         <v>3261969</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3228425</v>
+        <v>3228337</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3292305</v>
+        <v>3297218</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9196512418933435</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9101941326052131</v>
+        <v>0.9101693617805435</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9282038119495828</v>
+        <v>0.929589023708677</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6151</v>
@@ -2375,19 +2375,19 @@
         <v>6601440</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6562131</v>
+        <v>6562460</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6639641</v>
+        <v>6639099</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9469056946693368</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9412672071343327</v>
+        <v>0.9413143676158968</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9523852624040348</v>
+        <v>0.9523074366035693</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9113</v>
+        <v>7727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005673763063510718</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02172657500723053</v>
+        <v>0.01842227214541427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2743,19 +2743,19 @@
         <v>9298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3907</v>
+        <v>4537</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17256</v>
+        <v>18117</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02349477834850986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009872188103987682</v>
+        <v>0.01146421505893552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04360378506227847</v>
+        <v>0.04577761624040463</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2764,19 +2764,19 @@
         <v>11678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5531</v>
+        <v>5992</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21169</v>
+        <v>20531</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01432513722865494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006784192864945523</v>
+        <v>0.007350711666032774</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0259668061862611</v>
+        <v>0.02518483767903752</v>
       </c>
     </row>
     <row r="5">
@@ -2793,7 +2793,7 @@
         <v>417083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410350</v>
+        <v>411736</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -2802,7 +2802,7 @@
         <v>0.9943262369364892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9782734249927695</v>
+        <v>0.9815777278545855</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2814,19 +2814,19 @@
         <v>386457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>378499</v>
+        <v>377638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>391848</v>
+        <v>391218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9765052216514901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9563962149377216</v>
+        <v>0.9542223837595951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9901278118960125</v>
+        <v>0.9885357849410644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>787</v>
@@ -2835,19 +2835,19 @@
         <v>803540</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>794049</v>
+        <v>794687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>809687</v>
+        <v>809226</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9856748627713451</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9740331938137389</v>
+        <v>0.9748151623209624</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9932158071350544</v>
+        <v>0.9926492883339673</v>
       </c>
     </row>
     <row r="6">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5802</v>
+        <v>6560</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003258444357617045</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009825185001706946</v>
+        <v>0.01110925232373058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2960,19 +2960,19 @@
         <v>6066</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2737</v>
+        <v>2714</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12643</v>
+        <v>13002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01076466067312467</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004856271124196903</v>
+        <v>0.004816359018842645</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02243483327744676</v>
+        <v>0.02307174350663631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -2981,19 +2981,19 @@
         <v>7990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3693</v>
+        <v>3808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14994</v>
+        <v>15294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006923898754416385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00319995247035964</v>
+        <v>0.003299413508507729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01299286207361164</v>
+        <v>0.01325273199373537</v>
       </c>
     </row>
     <row r="8">
@@ -3010,7 +3010,7 @@
         <v>588572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>584694</v>
+        <v>583936</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -3019,7 +3019,7 @@
         <v>0.996741555642383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9901748149982931</v>
+        <v>0.9888907476762664</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3031,19 +3031,19 @@
         <v>557478</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>550901</v>
+        <v>550542</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>560807</v>
+        <v>560830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9892353393268754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9775651667225533</v>
+        <v>0.9769282564933637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9951437288758033</v>
+        <v>0.9951836409811573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1138</v>
@@ -3052,19 +3052,19 @@
         <v>1146050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1139046</v>
+        <v>1138746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1150347</v>
+        <v>1150232</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9930761012455837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9870071379263885</v>
+        <v>0.9867472680062644</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9968000475296404</v>
+        <v>0.9967005864914923</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>11143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6229</v>
+        <v>6147</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19401</v>
+        <v>20435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01665398612655302</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009309116943665728</v>
+        <v>0.009186337624306543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02899578349487556</v>
+        <v>0.03054114740775703</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3177,19 +3177,19 @@
         <v>25843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17800</v>
+        <v>17075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37427</v>
+        <v>36483</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03907460992115246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02691270129729976</v>
+        <v>0.02581740823649894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05658889611120928</v>
+        <v>0.05516149764205826</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -3198,19 +3198,19 @@
         <v>36987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26724</v>
+        <v>26416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49624</v>
+        <v>50109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02779933205674549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02008621165897946</v>
+        <v>0.01985445921370005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03729786614463925</v>
+        <v>0.03766205704645869</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>657954</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>649696</v>
+        <v>648662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662868</v>
+        <v>662950</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.983346013873447</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9710042165051247</v>
+        <v>0.969458852592244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9906908830563345</v>
+        <v>0.9908136623756935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -3248,19 +3248,19 @@
         <v>635543</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623959</v>
+        <v>624903</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>643586</v>
+        <v>644311</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9609253900788476</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.943411103888791</v>
+        <v>0.9448385023579418</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9730872987027004</v>
+        <v>0.9741825917635011</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1265</v>
@@ -3269,19 +3269,19 @@
         <v>1293496</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1280859</v>
+        <v>1280374</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1303759</v>
+        <v>1304067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9722006679432545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9627021338553616</v>
+        <v>0.9623379429535412</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9799137883410208</v>
+        <v>0.9801455407862999</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3373,19 @@
         <v>19518</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12377</v>
+        <v>12248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30650</v>
+        <v>29698</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03021088453018935</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01915861917155189</v>
+        <v>0.01895882485976695</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04744160170002063</v>
+        <v>0.0459682042681826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3394,19 +3394,19 @@
         <v>50552</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37496</v>
+        <v>38329</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67017</v>
+        <v>65332</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0778823662957194</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05776847219474546</v>
+        <v>0.05905177012260768</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1032497697235626</v>
+        <v>0.1006544250380788</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -3415,19 +3415,19 @@
         <v>70069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54725</v>
+        <v>54883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87814</v>
+        <v>87796</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05410236511766879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04225449503195036</v>
+        <v>0.04237659666988777</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06780347390284674</v>
+        <v>0.06778973003805153</v>
       </c>
     </row>
     <row r="14">
@@ -3444,19 +3444,19 @@
         <v>626530</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>615398</v>
+        <v>616350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>633671</v>
+        <v>633800</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9697891154698106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.95255839829998</v>
+        <v>0.9540317957318177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9808413808284482</v>
+        <v>0.9810411751402333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>555</v>
@@ -3465,19 +3465,19 @@
         <v>598525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>582060</v>
+        <v>583745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611581</v>
+        <v>610748</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9221176337042806</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8967502302764371</v>
+        <v>0.8993455749619212</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9422315278052538</v>
+        <v>0.9409482298773924</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1118</v>
@@ -3486,19 +3486,19 @@
         <v>1225056</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1207311</v>
+        <v>1207329</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1240400</v>
+        <v>1240242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9458976348823313</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9321965260971535</v>
+        <v>0.9322102699619486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9577455049680498</v>
+        <v>0.9576234033301123</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>18135</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10866</v>
+        <v>10320</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28517</v>
+        <v>28628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03794637413111344</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02273596630949937</v>
+        <v>0.02159275783082475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0596701715180165</v>
+        <v>0.05990115116155512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -3611,19 +3611,19 @@
         <v>56497</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44377</v>
+        <v>42436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73240</v>
+        <v>73409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.113710751358969</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08931605729353793</v>
+        <v>0.08541110893830785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1474083640884959</v>
+        <v>0.1477492391157989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -3632,19 +3632,19 @@
         <v>74632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59328</v>
+        <v>57495</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94721</v>
+        <v>94173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07656427479026251</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06086378901350686</v>
+        <v>0.05898375088818963</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09717245356730726</v>
+        <v>0.09661032794883878</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>459783</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>449401</v>
+        <v>449290</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>467052</v>
+        <v>467598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9620536258688865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9403298284819835</v>
+        <v>0.9400988488384451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9772640336905006</v>
+        <v>0.9784072421691753</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>383</v>
@@ -3682,19 +3682,19 @@
         <v>440352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>423609</v>
+        <v>423440</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>452472</v>
+        <v>454413</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.886289248641031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.852591635911504</v>
+        <v>0.852250760884201</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9106839427064621</v>
+        <v>0.9145888910616919</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>791</v>
@@ -3703,19 +3703,19 @@
         <v>900135</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>880046</v>
+        <v>880594</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>915439</v>
+        <v>917272</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9234357252097375</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9028275464326927</v>
+        <v>0.9033896720511616</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9391362109864931</v>
+        <v>0.9410162491118107</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>3874</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9762</v>
+        <v>8973</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01158676380057727</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00302838790304379</v>
+        <v>0.003040580318302174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0291999321512276</v>
+        <v>0.02684020835010847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -3828,19 +3828,19 @@
         <v>43149</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30980</v>
+        <v>32393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55994</v>
+        <v>56986</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1142228345130555</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08200945536241468</v>
+        <v>0.0857504008128578</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1482261141637038</v>
+        <v>0.1508523937317152</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -3849,19 +3849,19 @@
         <v>47023</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35435</v>
+        <v>35189</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61845</v>
+        <v>62421</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06603479512495207</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04976225492646234</v>
+        <v>0.04941667837505113</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08685006503493865</v>
+        <v>0.08765796991163421</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>330456</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>324568</v>
+        <v>325357</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333318</v>
+        <v>333313</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9884132361994227</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9708000678487724</v>
+        <v>0.9731597916498917</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969716120969562</v>
+        <v>0.9969594196816979</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>313</v>
@@ -3899,19 +3899,19 @@
         <v>334613</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>321768</v>
+        <v>320776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>346782</v>
+        <v>345369</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8857771654869445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.851773885836296</v>
+        <v>0.8491476062682851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9179905446375851</v>
+        <v>0.9142495991871422</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>634</v>
@@ -3920,19 +3920,19 @@
         <v>665069</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>650247</v>
+        <v>649671</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>676657</v>
+        <v>676903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.933965204875048</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9131499349650612</v>
+        <v>0.912342030088366</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9502377450735375</v>
+        <v>0.9505833216249489</v>
       </c>
     </row>
     <row r="21">
@@ -4024,19 +4024,19 @@
         <v>9917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5667</v>
+        <v>5802</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16531</v>
+        <v>16579</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.038588381783096</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02204926616258211</v>
+        <v>0.02257455336658228</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06432329852362641</v>
+        <v>0.06450879705331218</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -4045,19 +4045,19 @@
         <v>46511</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34368</v>
+        <v>33467</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61894</v>
+        <v>61865</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1162281546379744</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0858828237734921</v>
+        <v>0.08363133407909513</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1546697838291037</v>
+        <v>0.1545980627278946</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -4066,19 +4066,19 @@
         <v>56428</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42005</v>
+        <v>42145</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74276</v>
+        <v>72898</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08586560385286832</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06391755456125353</v>
+        <v>0.06413121671826751</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1130238197227892</v>
+        <v>0.1109281418632348</v>
       </c>
     </row>
     <row r="23">
@@ -4095,19 +4095,19 @@
         <v>247081</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>240467</v>
+        <v>240419</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>251331</v>
+        <v>251196</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.961411618216904</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9356767014763735</v>
+        <v>0.9354912029466877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9779507338374178</v>
+        <v>0.9774254466334178</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>265</v>
@@ -4116,19 +4116,19 @@
         <v>353658</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>338275</v>
+        <v>338304</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>365801</v>
+        <v>366702</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8837718453620257</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8453302161708961</v>
+        <v>0.8454019372721062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9141171762265079</v>
+        <v>0.916368665920905</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>555</v>
@@ -4137,19 +4137,19 @@
         <v>600739</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>582891</v>
+        <v>584269</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>615162</v>
+        <v>615022</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9141343961471317</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8869761802772108</v>
+        <v>0.8890718581367651</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9360824454387464</v>
+        <v>0.9358687832817325</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>66891</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52605</v>
+        <v>50427</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85342</v>
+        <v>83049</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01970658274563305</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01549782183132276</v>
+        <v>0.01485617203978425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02514246988506556</v>
+        <v>0.02446672067256133</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>215</v>
@@ -4262,19 +4262,19 @@
         <v>237917</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>207684</v>
+        <v>209457</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>274709</v>
+        <v>272707</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06712196324374967</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05859270296704545</v>
+        <v>0.05909291470979196</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07750208701818941</v>
+        <v>0.07693728137728899</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>281</v>
@@ -4283,19 +4283,19 @@
         <v>304808</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>272390</v>
+        <v>268225</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>340167</v>
+        <v>340343</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04392742366477541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03925549998180625</v>
+        <v>0.03865526240186772</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04902330229248265</v>
+        <v>0.04904863553321134</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>3327459</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3309008</v>
+        <v>3311301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3341745</v>
+        <v>3343923</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9802934172543669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9748575301149345</v>
+        <v>0.9755332793274387</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9845021781686774</v>
+        <v>0.9851438279602158</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3123</v>
@@ -4333,19 +4333,19 @@
         <v>3306625</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3269833</v>
+        <v>3271835</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3336858</v>
+        <v>3335085</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9328780367562504</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9224979129818106</v>
+        <v>0.9230627186227111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9414072970329546</v>
+        <v>0.9409070852902081</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6288</v>
@@ -4354,19 +4354,19 @@
         <v>6634084</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6598725</v>
+        <v>6598549</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6666502</v>
+        <v>6670667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9560725763352246</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9509766977075175</v>
+        <v>0.9509513644667886</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9607445000181939</v>
+        <v>0.9613447375981322</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>8600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2513</v>
+        <v>2682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22579</v>
+        <v>22289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02108977148445831</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00616289611545525</v>
+        <v>0.006577649323941415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05536850380673855</v>
+        <v>0.05465673235463196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4722,19 +4722,19 @@
         <v>12887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5188</v>
+        <v>5433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25427</v>
+        <v>26103</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03554866640308311</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01431249574051207</v>
+        <v>0.0149863235199498</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07014147375408845</v>
+        <v>0.07200606956032696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4743,19 +4743,19 @@
         <v>21487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10947</v>
+        <v>10738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37709</v>
+        <v>37645</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02789424801877079</v>
+        <v>0.02789424801877078</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01421097053882642</v>
+        <v>0.01394050037705504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04895360939831495</v>
+        <v>0.04887027600348895</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>399193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385214</v>
+        <v>385504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405280</v>
+        <v>405111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9789102285155419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9446314961932623</v>
+        <v>0.9453432676453682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9938371038845447</v>
+        <v>0.9934223506760587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -4793,19 +4793,19 @@
         <v>349625</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337085</v>
+        <v>336409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357324</v>
+        <v>357079</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9644513335969168</v>
+        <v>0.9644513335969169</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9298585262459116</v>
+        <v>0.9279939304396728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.985687504259488</v>
+        <v>0.9850136764800501</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>368</v>
@@ -4814,19 +4814,19 @@
         <v>748818</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732596</v>
+        <v>732660</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759358</v>
+        <v>759567</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9721057519812293</v>
+        <v>0.9721057519812292</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9510463906016848</v>
+        <v>0.951129723996511</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9857890294611735</v>
+        <v>0.9860594996229449</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>6987</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2789</v>
+        <v>2516</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16208</v>
+        <v>15017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01465144947677619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005848982441731762</v>
+        <v>0.005276425398964286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0339877386093195</v>
+        <v>0.03148845457279082</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -4939,19 +4939,19 @@
         <v>22597</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14252</v>
+        <v>14048</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35731</v>
+        <v>34234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04503875041340148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02840593722731251</v>
+        <v>0.02799964428893565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07121496959411232</v>
+        <v>0.06823188521004353</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -4960,19 +4960,19 @@
         <v>29585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18822</v>
+        <v>19828</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43215</v>
+        <v>45264</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03023079078344785</v>
+        <v>0.03023079078344786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01923290223435774</v>
+        <v>0.02026153637524463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04415896623930445</v>
+        <v>0.04625242637404176</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>469903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460682</v>
+        <v>461873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474101</v>
+        <v>474374</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9853485505232237</v>
+        <v>0.9853485505232238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9660122613906805</v>
+        <v>0.9685115454272089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9941510175582682</v>
+        <v>0.9947235746010357</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -5010,19 +5010,19 @@
         <v>479136</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>466002</v>
+        <v>467499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>487481</v>
+        <v>487685</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9549612495865983</v>
+        <v>0.9549612495865984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9287850304058877</v>
+        <v>0.9317681147899566</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9715940627726875</v>
+        <v>0.9720003557110645</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>739</v>
@@ -5031,19 +5031,19 @@
         <v>949038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>935408</v>
+        <v>933359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>959801</v>
+        <v>958795</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.969769209216552</v>
+        <v>0.9697692092165522</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9558410337606957</v>
+        <v>0.9537475736259589</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9807670977656423</v>
+        <v>0.9797384636247557</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>23772</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14834</v>
+        <v>15264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36278</v>
+        <v>34808</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03828956635988089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02389331108506957</v>
+        <v>0.0245859312809147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05843397020503017</v>
+        <v>0.05606704850045863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -5156,19 +5156,19 @@
         <v>32978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24081</v>
+        <v>24266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43763</v>
+        <v>42764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05291704457215734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03864168854812967</v>
+        <v>0.0389375911346343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07022417424471873</v>
+        <v>0.06862096025672805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -5177,19 +5177,19 @@
         <v>56749</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43055</v>
+        <v>43228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71333</v>
+        <v>71923</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04561715541707588</v>
+        <v>0.04561715541707587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03460900749318357</v>
+        <v>0.03474831918772726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05734000211890498</v>
+        <v>0.05781481004467876</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>597065</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>584559</v>
+        <v>586029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>606003</v>
+        <v>605573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9617104336401191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9415660297949699</v>
+        <v>0.9439329514995412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9761066889149306</v>
+        <v>0.9754140687190853</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>803</v>
@@ -5227,19 +5227,19 @@
         <v>590215</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>579430</v>
+        <v>580429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>599112</v>
+        <v>598927</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9470829554278426</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9297758257552806</v>
+        <v>0.931379039743272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9613583114518702</v>
+        <v>0.9610624088653659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1329</v>
@@ -5248,19 +5248,19 @@
         <v>1187280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1172696</v>
+        <v>1172106</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1200974</v>
+        <v>1200801</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9543828445829241</v>
+        <v>0.9543828445829239</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.942659997881095</v>
+        <v>0.9421851899553215</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9653909925068167</v>
+        <v>0.9652516808122729</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>34473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24695</v>
+        <v>24496</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48656</v>
+        <v>49564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04920351560399756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03524781778533793</v>
+        <v>0.03496323792715571</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06944683367239848</v>
+        <v>0.07074268416857045</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -5373,19 +5373,19 @@
         <v>62278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49977</v>
+        <v>50157</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74926</v>
+        <v>74292</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08451559212836936</v>
+        <v>0.08451559212836934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06782212584039744</v>
+        <v>0.06806572280346601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1016790022758541</v>
+        <v>0.1008181753005339</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -5394,19 +5394,19 @@
         <v>96751</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79487</v>
+        <v>80814</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113114</v>
+        <v>115343</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06730502801308313</v>
+        <v>0.06730502801308315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05529546886350289</v>
+        <v>0.05621798266071031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0786880418302887</v>
+        <v>0.08023837161208359</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>666144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>651961</v>
+        <v>651053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675922</v>
+        <v>676121</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9507964843960025</v>
+        <v>0.9507964843960023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9305531663276019</v>
+        <v>0.9292573158314306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9647521822146621</v>
+        <v>0.9650367620728444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1048</v>
@@ -5444,19 +5444,19 @@
         <v>674608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>661960</v>
+        <v>662594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>686909</v>
+        <v>686729</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9154844078716307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.898320997724146</v>
+        <v>0.8991818246994661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9321778741596031</v>
+        <v>0.931934277196534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1682</v>
@@ -5465,19 +5465,19 @@
         <v>1340753</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1324390</v>
+        <v>1322161</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1358017</v>
+        <v>1356690</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9326949719869169</v>
+        <v>0.9326949719869171</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9213119581697111</v>
+        <v>0.9197616283879163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.944704531136497</v>
+        <v>0.9437820173392896</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>33340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23581</v>
+        <v>23526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44157</v>
+        <v>45421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0547150252334327</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03869872971915721</v>
+        <v>0.03860825036491965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07246579112191535</v>
+        <v>0.07454020545525193</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -5590,19 +5590,19 @@
         <v>71966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60992</v>
+        <v>60749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85150</v>
+        <v>85903</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1181994690174577</v>
+        <v>0.1181994690174578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1001753358100363</v>
+        <v>0.09977519495190845</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1398521881506661</v>
+        <v>0.1410887986668176</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -5611,19 +5611,19 @@
         <v>105307</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89548</v>
+        <v>89139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124283</v>
+        <v>122575</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08644445219249607</v>
+        <v>0.08644445219249608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07350854463468114</v>
+        <v>0.07317276653928347</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.102022005036511</v>
+        <v>0.1006199002698197</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>576006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>565189</v>
+        <v>563925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>585765</v>
+        <v>585820</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9452849747665673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9275342088780849</v>
+        <v>0.9254597945447482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9613012702808429</v>
+        <v>0.9613917496350807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>886</v>
@@ -5661,19 +5661,19 @@
         <v>536889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>523705</v>
+        <v>522952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>547863</v>
+        <v>548106</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8818005309825421</v>
+        <v>0.8818005309825424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8601478118493339</v>
+        <v>0.8589112013331824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8998246641899634</v>
+        <v>0.9002248050480914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1512</v>
@@ -5682,19 +5682,19 @@
         <v>1112895</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1093919</v>
+        <v>1095627</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1128654</v>
+        <v>1129063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.913555547807504</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8979779949634888</v>
+        <v>0.8993800997301803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9264914553653189</v>
+        <v>0.9268272334607165</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>11625</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7032</v>
+        <v>7013</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18456</v>
+        <v>18153</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02855588704795175</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01727454215095117</v>
+        <v>0.01722740214209883</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04533699785485605</v>
+        <v>0.04459301341101685</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -5807,19 +5807,19 @@
         <v>45248</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36810</v>
+        <v>36126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56514</v>
+        <v>54880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1030324449082422</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08381740976501295</v>
+        <v>0.0822598085107247</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.128684252299666</v>
+        <v>0.1249648767630977</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -5828,19 +5828,19 @@
         <v>56873</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46028</v>
+        <v>45966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68764</v>
+        <v>68922</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06720610128086496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05439053717877838</v>
+        <v>0.0543179759708874</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08125765553095385</v>
+        <v>0.08144497644886657</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>395455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>388624</v>
+        <v>388927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>400048</v>
+        <v>400067</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9714441129520482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9546630021451442</v>
+        <v>0.9554069865889833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9827254578490491</v>
+        <v>0.9827725978579011</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>747</v>
@@ -5878,19 +5878,19 @@
         <v>393918</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>382652</v>
+        <v>384286</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>402356</v>
+        <v>403040</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8969675550917579</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8713157477003338</v>
+        <v>0.8750351232369021</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.916182590234987</v>
+        <v>0.9177401914892751</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1300</v>
@@ -5899,19 +5899,19 @@
         <v>789373</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>777482</v>
+        <v>777324</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>800218</v>
+        <v>800280</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.932793898719135</v>
+        <v>0.9327938987191351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9187423444690462</v>
+        <v>0.9185550235511335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9456094628212216</v>
+        <v>0.9456820240291122</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>16421</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10561</v>
+        <v>10099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24882</v>
+        <v>23756</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05293748398886154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03404677059471208</v>
+        <v>0.03255530770326832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08021287331053102</v>
+        <v>0.0765844743247039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -6024,19 +6024,19 @@
         <v>51375</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41833</v>
+        <v>42124</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63126</v>
+        <v>62785</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1105776281497695</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0900389463160793</v>
+        <v>0.09066495381320044</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1358682541879337</v>
+        <v>0.1351356133408703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -6045,19 +6045,19 @@
         <v>67796</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56511</v>
+        <v>56633</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79746</v>
+        <v>81354</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08750108054666668</v>
+        <v>0.08750108054666667</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07293608237958991</v>
+        <v>0.07309330697623051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1029238879639049</v>
+        <v>0.1049991543636698</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>293777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>285316</v>
+        <v>286442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>299637</v>
+        <v>300099</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9470625160111382</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9197871266894693</v>
+        <v>0.9234155256752961</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9659532294052878</v>
+        <v>0.9674446922967319</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>789</v>
@@ -6095,19 +6095,19 @@
         <v>413234</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>401483</v>
+        <v>401824</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>422776</v>
+        <v>422485</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8894223718502305</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8641317458120663</v>
+        <v>0.8648643866591299</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9099610536839208</v>
+        <v>0.9093350461867996</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1224</v>
@@ -6116,19 +6116,19 @@
         <v>707011</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>695061</v>
+        <v>693453</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>718296</v>
+        <v>718174</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9124989194533334</v>
+        <v>0.9124989194533333</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8970761120360952</v>
+        <v>0.8950008456363303</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9270639176204101</v>
+        <v>0.9269066930237695</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>135218</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>113408</v>
+        <v>111675</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160831</v>
+        <v>162312</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03827539222787757</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0321017034585543</v>
+        <v>0.03161114073685194</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04552545949502023</v>
+        <v>0.04594478447260101</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>452</v>
@@ -6241,19 +6241,19 @@
         <v>299330</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>271796</v>
+        <v>273976</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>328182</v>
+        <v>331084</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0801000539234278</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07273186518229634</v>
+        <v>0.07331544755997914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08782080933619643</v>
+        <v>0.08859724223886213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>589</v>
@@ -6262,19 +6262,19 @@
         <v>434548</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>398896</v>
+        <v>393024</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>475673</v>
+        <v>470504</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05977510998432212</v>
+        <v>0.05977510998432211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05487092139409511</v>
+        <v>0.05406320808633589</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06543208960991158</v>
+        <v>0.06472113825583961</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>3397544</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3371931</v>
+        <v>3370450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3419354</v>
+        <v>3421087</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9617246077721227</v>
+        <v>0.9617246077721225</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9544745405049796</v>
+        <v>0.954055215527399</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9678982965414458</v>
+        <v>0.9683888592631481</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4915</v>
@@ -6312,19 +6312,19 @@
         <v>3437624</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3408772</v>
+        <v>3405870</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3465158</v>
+        <v>3462978</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9198999460765722</v>
+        <v>0.9198999460765721</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9121791906638034</v>
+        <v>0.9114027577611378</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9272681348177035</v>
+        <v>0.9266845524400209</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8154</v>
@@ -6333,19 +6333,19 @@
         <v>6835168</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6794043</v>
+        <v>6799212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6870820</v>
+        <v>6876692</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9402248900156779</v>
+        <v>0.9402248900156777</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9345679103900885</v>
+        <v>0.9352788617441604</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9451290786059053</v>
+        <v>0.9459367919136642</v>
       </c>
     </row>
     <row r="27">
